--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/5_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/5_11R22.xlsx
@@ -677,88 +677,88 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1656462650631509</v>
+        <v>0.2177472746633094</v>
       </c>
       <c r="F2">
-        <v>0.01891421794014306</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.1402661284630736</v>
+        <v>0.3122708254555271</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.02943225349768794</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.02471325295623115</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.03538371208345138</v>
+        <v>0.003274810746261334</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.07663003972842514</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0127390276860864</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.1065018161950594</v>
+        <v>0.08555569579247375</v>
       </c>
       <c r="P2">
-        <v>0.001540651945965938</v>
+        <v>0.1176561783289269</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.002369245174667706</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.02688203546836454</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.1786429927594131</v>
+        <v>0.1159630879062258</v>
       </c>
       <c r="U2">
-        <v>0.01024907496076146</v>
+        <v>0.03320290049882216</v>
       </c>
       <c r="V2">
-        <v>0.06015835209013649</v>
+        <v>0.01256086402366441</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0.07441437585216196</v>
+        <v>0.0252017337013596</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.01460800538169939</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.01315908094817632</v>
       </c>
       <c r="AB2">
-        <v>0.02040698425284564</v>
+        <v>0.005528568030617933</v>
       </c>
       <c r="AC2">
-        <v>0.02197544313845625</v>
+        <v>0.003733473450716054</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.02566108857327365</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0003772458029705327</v>
+        <v>0</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.006633297439893414</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -787,88 +787,88 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1584335508871076</v>
+        <v>0.08796612086207516</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.03048073962739156</v>
       </c>
       <c r="G3">
-        <v>0.1995789899660071</v>
+        <v>0.1881692482821852</v>
       </c>
       <c r="H3">
-        <v>0.001362147018642461</v>
+        <v>0.1506424136547791</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.007258747449028434</v>
       </c>
       <c r="K3">
-        <v>0.009913417290125516</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.07312054470330856</v>
+        <v>0.007245021834712997</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1035987897282553</v>
+        <v>0.0579463172822134</v>
       </c>
       <c r="P3">
-        <v>0.02013043396261976</v>
+        <v>0.08344234455842464</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.002360511246137724</v>
+        <v>0.0006767869708920335</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.1504084589494623</v>
+        <v>0.1079833379501952</v>
       </c>
       <c r="U3">
-        <v>0.05469432125886871</v>
+        <v>0.1265772132867308</v>
       </c>
       <c r="V3">
-        <v>0.05185716032338263</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.01554537377963485</v>
+        <v>0.03964559714888138</v>
       </c>
       <c r="X3">
-        <v>0.05523583386021436</v>
+        <v>0.01179784181815318</v>
       </c>
       <c r="Y3">
-        <v>0.004471439918987542</v>
+        <v>0.02230457162921387</v>
       </c>
       <c r="Z3">
-        <v>0.01763831625124962</v>
+        <v>0.00237785284070277</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>0.001024178176764584</v>
       </c>
       <c r="AB3">
-        <v>0.01156701428183684</v>
+        <v>0.006493039255885038</v>
       </c>
       <c r="AC3">
-        <v>0.03284214837770186</v>
+        <v>0.03051398390071728</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.03129189432493851</v>
+        <v>0.009719143861715839</v>
       </c>
       <c r="AF3">
-        <v>0.005583998020003029</v>
+        <v>0.02761297682066816</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0003656558515156698</v>
+        <v>0.0001225227886696918</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -897,16 +897,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1312774431354588</v>
+        <v>0.05066149589664281</v>
       </c>
       <c r="F4">
-        <v>0.03968703550565983</v>
+        <v>0.001996619265919411</v>
       </c>
       <c r="G4">
-        <v>0.2420610590425881</v>
+        <v>0.1923609302853952</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.1073529086261834</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -915,73 +915,73 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.001267604072463273</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0409509984451806</v>
+        <v>0.05704604353613165</v>
       </c>
       <c r="N4">
-        <v>0.01806146304687464</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1162658568293875</v>
+        <v>0.17351450025861</v>
       </c>
       <c r="P4">
-        <v>0.03772711242566655</v>
+        <v>0.03060801454400881</v>
       </c>
       <c r="Q4">
-        <v>0.004341602378843682</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.0592484362135818</v>
       </c>
       <c r="S4">
-        <v>0.01172411228093576</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.1566624532229992</v>
+        <v>0.09367357412772621</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.09981273711921139</v>
       </c>
       <c r="V4">
-        <v>0.07590676013704407</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.03857154104531314</v>
       </c>
       <c r="X4">
-        <v>0.04626009456505411</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.007679176821191654</v>
       </c>
       <c r="Z4">
-        <v>0.01047255049344729</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.02519576170724682</v>
       </c>
       <c r="AB4">
-        <v>0.03749561739686977</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.02022495593375254</v>
+        <v>0.03237114860633827</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.001526625964834523</v>
       </c>
       <c r="AE4">
-        <v>0.009613281087774329</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.02159131109861768</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.006789174883047189</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -1004,19 +1004,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0156798898124956</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04709512281393469</v>
+        <v>0.1184757358391148</v>
       </c>
       <c r="F5">
-        <v>0.1127214417714137</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.1607947032476938</v>
+        <v>0.1605591295679529</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.107510253924114</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1025,70 +1025,70 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.009990672274786977</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.003668509616462544</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.03214211122080417</v>
+        <v>0.02033785185127325</v>
       </c>
       <c r="N5">
-        <v>0.08025184626022298</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.111586899511039</v>
+        <v>0.1195476078361589</v>
       </c>
       <c r="P5">
-        <v>0.01692461455468312</v>
+        <v>0.06661145210993635</v>
       </c>
       <c r="Q5">
-        <v>0.01389966354529459</v>
+        <v>0.003996067040549757</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.01227863540426517</v>
       </c>
       <c r="S5">
-        <v>0.03754171994841157</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.1542871907747676</v>
+        <v>0.1642657567058685</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.09817408311663195</v>
       </c>
       <c r="V5">
-        <v>0.07605486994230971</v>
+        <v>0.007644282501656869</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.01443926055501843</v>
       </c>
       <c r="X5">
-        <v>0.04279809409171675</v>
+        <v>0.0236987703621199</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.004070230204693479</v>
       </c>
       <c r="Z5">
-        <v>0.01652628740133518</v>
+        <v>0.01123152456643897</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.04981492422815535</v>
+        <v>0.001859115542649413</v>
       </c>
       <c r="AC5">
-        <v>0.006677899144690388</v>
+        <v>0.02890828572643859</v>
       </c>
       <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.01154353983978256</v>
+        <v>0.00799436500394362</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.028397592141175</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1114,91 +1114,91 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01450088082007545</v>
+        <v>0.01604993310975715</v>
       </c>
       <c r="E6">
-        <v>0.1014449834315055</v>
+        <v>0.07247708086920525</v>
       </c>
       <c r="F6">
-        <v>0.1113014302721265</v>
+        <v>0.0767351886610655</v>
       </c>
       <c r="G6">
-        <v>0.1945617686842138</v>
+        <v>0.1190398358534049</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01110536570533277</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.003399817108590234</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.01623532093124563</v>
       </c>
       <c r="M6">
-        <v>0.03733618581123366</v>
+        <v>0.02186606927205955</v>
       </c>
       <c r="N6">
-        <v>0.02606352976754904</v>
+        <v>0.1356703678603573</v>
       </c>
       <c r="O6">
-        <v>0.1032274562563003</v>
+        <v>0.08484514049413876</v>
       </c>
       <c r="P6">
-        <v>0.007133759820122649</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.03001933419920147</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.007446444769076954</v>
       </c>
       <c r="S6">
-        <v>0.05265066697613795</v>
+        <v>0.06774298414684578</v>
       </c>
       <c r="T6">
-        <v>0.1704250963416689</v>
+        <v>0.1557058215044912</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.05933022660766292</v>
+        <v>0.03039242345588678</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.05613023320179465</v>
+        <v>0.03658041387830228</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0101140619393113</v>
+        <v>0.01810083838736427</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.03458074955068598</v>
+        <v>0.05132448461145466</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.01829785542576376</v>
       </c>
       <c r="AD6">
-        <v>0.00226625502583912</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.01589603095432648</v>
+        <v>0.01475584315447184</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.01220943660198376</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.003036684539445448</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1350,100 +1350,100 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1656462650631509</v>
+        <v>0.2177472746633094</v>
       </c>
       <c r="F2">
-        <v>0.184560483003294</v>
+        <v>0.2177472746633094</v>
       </c>
       <c r="G2">
-        <v>0.3248266114663676</v>
+        <v>0.5300181001188365</v>
       </c>
       <c r="H2">
-        <v>0.3248266114663676</v>
+        <v>0.5594503536165245</v>
       </c>
       <c r="I2">
-        <v>0.3248266114663676</v>
+        <v>0.5841636065727557</v>
       </c>
       <c r="J2">
-        <v>0.3248266114663676</v>
+        <v>0.5841636065727557</v>
       </c>
       <c r="K2">
-        <v>0.360210323549819</v>
+        <v>0.587438417319017</v>
       </c>
       <c r="L2">
-        <v>0.360210323549819</v>
+        <v>0.587438417319017</v>
       </c>
       <c r="M2">
-        <v>0.4368403632782441</v>
+        <v>0.587438417319017</v>
       </c>
       <c r="N2">
-        <v>0.4495793909643305</v>
+        <v>0.587438417319017</v>
       </c>
       <c r="O2">
-        <v>0.5560812071593899</v>
+        <v>0.6729941131114908</v>
       </c>
       <c r="P2">
-        <v>0.5576218591053559</v>
+        <v>0.7906502914404178</v>
       </c>
       <c r="Q2">
-        <v>0.5576218591053559</v>
+        <v>0.7906502914404178</v>
       </c>
       <c r="R2">
-        <v>0.5599911042800236</v>
+        <v>0.7906502914404178</v>
       </c>
       <c r="S2">
-        <v>0.5868731397483882</v>
+        <v>0.7906502914404178</v>
       </c>
       <c r="T2">
-        <v>0.7655161325078013</v>
+        <v>0.9066133793466435</v>
       </c>
       <c r="U2">
-        <v>0.7757652074685627</v>
+        <v>0.9398162798454657</v>
       </c>
       <c r="V2">
-        <v>0.8359235595586992</v>
+        <v>0.9523771438691301</v>
       </c>
       <c r="W2">
-        <v>0.8359235595586992</v>
+        <v>0.9523771438691301</v>
       </c>
       <c r="X2">
-        <v>0.9103379354108612</v>
+        <v>0.9775788775704897</v>
       </c>
       <c r="Y2">
-        <v>0.9103379354108612</v>
+        <v>0.9775788775704897</v>
       </c>
       <c r="Z2">
-        <v>0.9249459407925605</v>
+        <v>0.9775788775704897</v>
       </c>
       <c r="AA2">
-        <v>0.9249459407925605</v>
+        <v>0.990737958518666</v>
       </c>
       <c r="AB2">
-        <v>0.9453529250454061</v>
+        <v>0.9962665265492839</v>
       </c>
       <c r="AC2">
-        <v>0.9673283681838624</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>0.9673283681838624</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0.992989456757136</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0.9933667025601065</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0.9933667025601065</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0.9933667025601065</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -1460,100 +1460,100 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1584335508871076</v>
+        <v>0.08796612086207516</v>
       </c>
       <c r="F3">
-        <v>0.1584335508871076</v>
+        <v>0.1184468604894667</v>
       </c>
       <c r="G3">
-        <v>0.3580125408531147</v>
+        <v>0.3066161087716519</v>
       </c>
       <c r="H3">
-        <v>0.3593746878717572</v>
+        <v>0.457258522426431</v>
       </c>
       <c r="I3">
-        <v>0.3593746878717572</v>
+        <v>0.457258522426431</v>
       </c>
       <c r="J3">
-        <v>0.3593746878717572</v>
+        <v>0.4645172698754594</v>
       </c>
       <c r="K3">
-        <v>0.3692881051618827</v>
+        <v>0.4645172698754594</v>
       </c>
       <c r="L3">
-        <v>0.3692881051618827</v>
+        <v>0.4645172698754594</v>
       </c>
       <c r="M3">
-        <v>0.4424086498651912</v>
+        <v>0.4717622917101724</v>
       </c>
       <c r="N3">
-        <v>0.4424086498651912</v>
+        <v>0.4717622917101724</v>
       </c>
       <c r="O3">
-        <v>0.5460074395934466</v>
+        <v>0.5297086089923858</v>
       </c>
       <c r="P3">
-        <v>0.5661378735560663</v>
+        <v>0.6131509535508104</v>
       </c>
       <c r="Q3">
-        <v>0.5661378735560663</v>
+        <v>0.6131509535508104</v>
       </c>
       <c r="R3">
-        <v>0.5684983848022039</v>
+        <v>0.6138277405217024</v>
       </c>
       <c r="S3">
-        <v>0.5684983848022039</v>
+        <v>0.6138277405217024</v>
       </c>
       <c r="T3">
-        <v>0.7189068437516661</v>
+        <v>0.7218110784718976</v>
       </c>
       <c r="U3">
-        <v>0.7736011650105349</v>
+        <v>0.8483882917586284</v>
       </c>
       <c r="V3">
-        <v>0.8254583253339175</v>
+        <v>0.8483882917586284</v>
       </c>
       <c r="W3">
-        <v>0.8410036991135523</v>
+        <v>0.8880338889075098</v>
       </c>
       <c r="X3">
-        <v>0.8962395329737667</v>
+        <v>0.8998317307256629</v>
       </c>
       <c r="Y3">
-        <v>0.9007109728927543</v>
+        <v>0.9221363023548768</v>
       </c>
       <c r="Z3">
-        <v>0.9183492891440039</v>
+        <v>0.9245141551955796</v>
       </c>
       <c r="AA3">
-        <v>0.9183492891440039</v>
+        <v>0.9255383333723441</v>
       </c>
       <c r="AB3">
-        <v>0.9299163034258408</v>
+        <v>0.9320313726282292</v>
       </c>
       <c r="AC3">
-        <v>0.9627584518035426</v>
+        <v>0.9625453565289465</v>
       </c>
       <c r="AD3">
-        <v>0.9627584518035426</v>
+        <v>0.9625453565289465</v>
       </c>
       <c r="AE3">
-        <v>0.9940503461284811</v>
+        <v>0.9722645003906623</v>
       </c>
       <c r="AF3">
-        <v>0.9996343441484841</v>
+        <v>0.9998774772113305</v>
       </c>
       <c r="AG3">
-        <v>0.9996343441484841</v>
+        <v>0.9998774772113305</v>
       </c>
       <c r="AH3">
-        <v>0.9996343441484841</v>
+        <v>0.9998774772113305</v>
       </c>
       <c r="AI3">
-        <v>0.9996343441484841</v>
+        <v>0.9998774772113305</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -1570,88 +1570,88 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1312774431354588</v>
+        <v>0.05066149589664281</v>
       </c>
       <c r="F4">
-        <v>0.1709644786411186</v>
+        <v>0.05265811516256222</v>
       </c>
       <c r="G4">
-        <v>0.4130255376837068</v>
+        <v>0.2450190454479574</v>
       </c>
       <c r="H4">
-        <v>0.4130255376837068</v>
+        <v>0.3523719540741408</v>
       </c>
       <c r="I4">
-        <v>0.4130255376837068</v>
+        <v>0.3523719540741408</v>
       </c>
       <c r="J4">
-        <v>0.4130255376837068</v>
+        <v>0.3523719540741408</v>
       </c>
       <c r="K4">
-        <v>0.41429314175617</v>
+        <v>0.3523719540741408</v>
       </c>
       <c r="L4">
-        <v>0.41429314175617</v>
+        <v>0.3523719540741408</v>
       </c>
       <c r="M4">
-        <v>0.4552441402013506</v>
+        <v>0.4094179976102724</v>
       </c>
       <c r="N4">
-        <v>0.4733056032482252</v>
+        <v>0.4094179976102724</v>
       </c>
       <c r="O4">
-        <v>0.5895714600776127</v>
+        <v>0.5829324978688825</v>
       </c>
       <c r="P4">
-        <v>0.6272985725032793</v>
+        <v>0.6135405124128913</v>
       </c>
       <c r="Q4">
-        <v>0.631640174882123</v>
+        <v>0.6135405124128913</v>
       </c>
       <c r="R4">
-        <v>0.631640174882123</v>
+        <v>0.6727889486264731</v>
       </c>
       <c r="S4">
-        <v>0.6433642871630587</v>
+        <v>0.6727889486264731</v>
       </c>
       <c r="T4">
-        <v>0.8000267403860579</v>
+        <v>0.7664625227541993</v>
       </c>
       <c r="U4">
-        <v>0.8000267403860579</v>
+        <v>0.8662752598734107</v>
       </c>
       <c r="V4">
-        <v>0.875933500523102</v>
+        <v>0.8662752598734107</v>
       </c>
       <c r="W4">
-        <v>0.875933500523102</v>
+        <v>0.9048468009187238</v>
       </c>
       <c r="X4">
-        <v>0.9221935950881561</v>
+        <v>0.9048468009187238</v>
       </c>
       <c r="Y4">
-        <v>0.9221935950881561</v>
+        <v>0.9125259777399155</v>
       </c>
       <c r="Z4">
-        <v>0.9326661455816034</v>
+        <v>0.9125259777399155</v>
       </c>
       <c r="AA4">
-        <v>0.9326661455816034</v>
+        <v>0.9377217394471623</v>
       </c>
       <c r="AB4">
-        <v>0.9701617629784732</v>
+        <v>0.9377217394471623</v>
       </c>
       <c r="AC4">
-        <v>0.9903867189122257</v>
+        <v>0.9700928880535006</v>
       </c>
       <c r="AD4">
-        <v>0.9903867189122257</v>
+        <v>0.9716195140183351</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0.9716195140183351</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.9932108251169528</v>
       </c>
       <c r="AG4">
         <v>1</v>
@@ -1677,103 +1677,103 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0156798898124956</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06277501262643029</v>
+        <v>0.1184757358391148</v>
       </c>
       <c r="F5">
-        <v>0.1754964543978439</v>
+        <v>0.1184757358391148</v>
       </c>
       <c r="G5">
-        <v>0.3362911576455377</v>
+        <v>0.2790348654070677</v>
       </c>
       <c r="H5">
-        <v>0.3362911576455377</v>
+        <v>0.3865451193311817</v>
       </c>
       <c r="I5">
-        <v>0.3362911576455377</v>
+        <v>0.3865451193311817</v>
       </c>
       <c r="J5">
-        <v>0.3362911576455377</v>
+        <v>0.3865451193311817</v>
       </c>
       <c r="K5">
-        <v>0.3462818299203247</v>
+        <v>0.3865451193311817</v>
       </c>
       <c r="L5">
-        <v>0.3499503395367873</v>
+        <v>0.3865451193311817</v>
       </c>
       <c r="M5">
-        <v>0.3820924507575915</v>
+        <v>0.406882971182455</v>
       </c>
       <c r="N5">
-        <v>0.4623442970178144</v>
+        <v>0.406882971182455</v>
       </c>
       <c r="O5">
-        <v>0.5739311965288535</v>
+        <v>0.5264305790186139</v>
       </c>
       <c r="P5">
-        <v>0.5908558110835366</v>
+        <v>0.5930420311285503</v>
       </c>
       <c r="Q5">
-        <v>0.6047554746288312</v>
+        <v>0.5970380981691</v>
       </c>
       <c r="R5">
-        <v>0.6047554746288312</v>
+        <v>0.6093167335733652</v>
       </c>
       <c r="S5">
-        <v>0.6422971945772428</v>
+        <v>0.6093167335733652</v>
       </c>
       <c r="T5">
-        <v>0.7965843853520104</v>
+        <v>0.7735824902792336</v>
       </c>
       <c r="U5">
-        <v>0.7965843853520104</v>
+        <v>0.8717565733958657</v>
       </c>
       <c r="V5">
-        <v>0.8726392552943201</v>
+        <v>0.8794008558975225</v>
       </c>
       <c r="W5">
-        <v>0.8726392552943201</v>
+        <v>0.8938401164525409</v>
       </c>
       <c r="X5">
-        <v>0.9154373493860368</v>
+        <v>0.9175388868146608</v>
       </c>
       <c r="Y5">
-        <v>0.9154373493860368</v>
+        <v>0.9216091170193542</v>
       </c>
       <c r="Z5">
-        <v>0.931963636787372</v>
+        <v>0.9328406415857932</v>
       </c>
       <c r="AA5">
-        <v>0.931963636787372</v>
+        <v>0.9328406415857932</v>
       </c>
       <c r="AB5">
-        <v>0.9817785610155274</v>
+        <v>0.9346997571284426</v>
       </c>
       <c r="AC5">
-        <v>0.9884564601602178</v>
+        <v>0.9636080428548811</v>
       </c>
       <c r="AD5">
-        <v>0.9884564601602178</v>
+        <v>0.9636080428548811</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.9716024078588247</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -1787,97 +1787,97 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01450088082007545</v>
+        <v>0.01604993310975715</v>
       </c>
       <c r="E6">
-        <v>0.115945864251581</v>
+        <v>0.0885270139789624</v>
       </c>
       <c r="F6">
-        <v>0.2272472945237075</v>
+        <v>0.1652622026400279</v>
       </c>
       <c r="G6">
-        <v>0.4218090632079213</v>
+        <v>0.2843020384934328</v>
       </c>
       <c r="H6">
-        <v>0.4218090632079213</v>
+        <v>0.2843020384934328</v>
       </c>
       <c r="I6">
-        <v>0.4218090632079213</v>
+        <v>0.2954074041987656</v>
       </c>
       <c r="J6">
-        <v>0.4218090632079213</v>
+        <v>0.2954074041987656</v>
       </c>
       <c r="K6">
-        <v>0.4218090632079213</v>
+        <v>0.2988072213073558</v>
       </c>
       <c r="L6">
-        <v>0.4218090632079213</v>
+        <v>0.3150425422386015</v>
       </c>
       <c r="M6">
-        <v>0.4591452490191549</v>
+        <v>0.336908611510661</v>
       </c>
       <c r="N6">
-        <v>0.485208778786704</v>
+        <v>0.4725789793710183</v>
       </c>
       <c r="O6">
-        <v>0.5884362350430044</v>
+        <v>0.5574241198651571</v>
       </c>
       <c r="P6">
-        <v>0.595569994863127</v>
+        <v>0.5574241198651571</v>
       </c>
       <c r="Q6">
-        <v>0.595569994863127</v>
+        <v>0.5874434540643585</v>
       </c>
       <c r="R6">
-        <v>0.595569994863127</v>
+        <v>0.5948898988334355</v>
       </c>
       <c r="S6">
-        <v>0.648220661839265</v>
+        <v>0.6626328829802812</v>
       </c>
       <c r="T6">
-        <v>0.8186457581809339</v>
+        <v>0.8183387044847724</v>
       </c>
       <c r="U6">
-        <v>0.8186457581809339</v>
+        <v>0.8183387044847724</v>
       </c>
       <c r="V6">
-        <v>0.8779759847885968</v>
+        <v>0.8487311279406592</v>
       </c>
       <c r="W6">
-        <v>0.8779759847885968</v>
+        <v>0.8487311279406592</v>
       </c>
       <c r="X6">
-        <v>0.9341062179903915</v>
+        <v>0.8853115418189614</v>
       </c>
       <c r="Y6">
-        <v>0.9341062179903915</v>
+        <v>0.8853115418189614</v>
       </c>
       <c r="Z6">
-        <v>0.9442202799297028</v>
+        <v>0.9034123802063257</v>
       </c>
       <c r="AA6">
-        <v>0.9442202799297028</v>
+        <v>0.9034123802063257</v>
       </c>
       <c r="AB6">
-        <v>0.9788010294803888</v>
+        <v>0.9547368648177804</v>
       </c>
       <c r="AC6">
-        <v>0.9788010294803888</v>
+        <v>0.9730347202435442</v>
       </c>
       <c r="AD6">
-        <v>0.9810672845062279</v>
+        <v>0.9730347202435442</v>
       </c>
       <c r="AE6">
-        <v>0.9969633154605544</v>
+        <v>0.9877905633980161</v>
       </c>
       <c r="AF6">
-        <v>0.9969633154605544</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG6">
-        <v>0.9969633154605544</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH6">
-        <v>0.9969633154605544</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI6">
         <v>0.9999999999999999</v>
@@ -1951,16 +1951,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5560812071593899</v>
+        <v>0.5300181001188365</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5460074395934466</v>
+        <v>0.5297086089923858</v>
       </c>
       <c r="G3">
         <v>12</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5895714600776127</v>
+        <v>0.5829324978688825</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5739311965288535</v>
+        <v>0.5264305790186139</v>
       </c>
       <c r="G5">
         <v>12</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5884362350430044</v>
+        <v>0.5574241198651571</v>
       </c>
       <c r="G6">
         <v>12</v>
@@ -2210,16 +2210,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7655161325078013</v>
+        <v>0.7906502914404178</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7189068437516661</v>
+        <v>0.7218110784718976</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8000267403860579</v>
+        <v>0.7664625227541993</v>
       </c>
       <c r="G4">
         <v>17</v>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7965843853520104</v>
+        <v>0.7735824902792336</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8186457581809339</v>
+        <v>0.8183387044847724</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -2469,16 +2469,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8359235595586992</v>
+        <v>0.9066133793466435</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -2510,16 +2510,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8254583253339175</v>
+        <v>0.8483882917586284</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -2551,16 +2551,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8000267403860579</v>
+        <v>0.8662752598734107</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -2592,16 +2592,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8726392552943201</v>
+        <v>0.8717565733958657</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8186457581809339</v>
+        <v>0.8183387044847724</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -2728,16 +2728,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9103379354108612</v>
+        <v>0.9066133793466435</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9007109728927543</v>
+        <v>0.9221363023548768</v>
       </c>
       <c r="G3">
         <v>22</v>
@@ -2810,16 +2810,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9221935950881561</v>
+        <v>0.9048468009187238</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9154373493860368</v>
+        <v>0.9175388868146608</v>
       </c>
       <c r="G5">
         <v>21</v>
@@ -2892,16 +2892,16 @@
         <v>2</v>
       </c>
       <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.9034123802063257</v>
+      </c>
+      <c r="G6">
         <v>23</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.9341062179903915</v>
-      </c>
-      <c r="G6">
-        <v>21</v>
       </c>
       <c r="H6">
         <v>5</v>
